--- a/hackSMU/hackSMUII/registrations.xlsx
+++ b/hackSMU/hackSMUII/registrations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\n-wes\Github\Data-Visualization-with-Python\hackSMU\hackSMUII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684ECFF1-9CCC-450B-9F70-E9BFF36CD0F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43C233-9A62-4EEB-A733-2383A0B6CC65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3188" yWindow="1853" windowWidth="18194" windowHeight="14084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HackSMU II Registration" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="176">
   <si>
     <t>Abhinav</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Harsh</t>
-  </si>
-  <si>
-    <t>Liberty High School, Frisco</t>
   </si>
   <si>
     <t>AP Computer Science</t>
@@ -851,8 +848,8 @@
   <dimension ref="A1:AM99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -862,25 +859,25 @@
   <sheetData>
     <row r="1" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -918,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -970,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -997,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1179,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -1398,7 +1395,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
@@ -1416,13 +1413,13 @@
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>35</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
@@ -1451,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
@@ -1469,10 +1466,10 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -1526,7 +1523,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -1576,7 +1573,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1602,25 +1599,25 @@
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="2"/>
@@ -1629,13 +1626,13 @@
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -1656,13 +1653,13 @@
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>42</v>
@@ -1683,7 +1680,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1692,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>5</v>
@@ -1710,16 +1707,16 @@
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>5</v>
@@ -1746,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
@@ -1763,7 +1760,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -1789,16 +1786,16 @@
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>5</v>
@@ -1816,16 +1813,16 @@
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>5</v>
@@ -1843,7 +1840,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1869,10 +1866,10 @@
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -1898,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>47</v>
@@ -1922,10 +1919,10 @@
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -1949,10 +1946,10 @@
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>3</v>
@@ -1976,7 +1973,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>11</v>
@@ -1991,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>9</v>
@@ -2003,7 +2000,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>11</v>
@@ -2030,7 +2027,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>22</v>
@@ -2056,13 +2053,13 @@
     </row>
     <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>42</v>
@@ -2092,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>5</v>
@@ -2110,10 +2107,10 @@
     </row>
     <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>3</v>
@@ -2136,22 +2133,22 @@
     </row>
     <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="3"/>
@@ -2159,13 +2156,13 @@
     </row>
     <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>42</v>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>11</v>
@@ -2194,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>5</v>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -2265,10 +2262,10 @@
     </row>
     <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>3</v>
@@ -2291,7 +2288,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>11</v>
@@ -2300,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>5</v>
@@ -2318,13 +2315,13 @@
     </row>
     <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>25</v>
@@ -2344,13 +2341,13 @@
     </row>
     <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>15</v>
@@ -2371,16 +2368,16 @@
     </row>
     <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>5</v>
@@ -2401,13 +2398,13 @@
         <v>36</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>5</v>
@@ -2424,16 +2421,16 @@
     </row>
     <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>5</v>
@@ -2442,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="2"/>
@@ -2451,16 +2448,16 @@
     </row>
     <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>5</v>
@@ -2478,16 +2475,16 @@
     </row>
     <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>5</v>
@@ -2505,25 +2502,25 @@
     </row>
     <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="2"/>
@@ -2532,16 +2529,16 @@
     </row>
     <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>5</v>
@@ -2559,10 +2556,10 @@
     </row>
     <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -2586,10 +2583,10 @@
     </row>
     <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>3</v>
@@ -2612,7 +2609,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>56</v>
@@ -2638,16 +2635,16 @@
     </row>
     <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
@@ -2665,13 +2662,13 @@
     </row>
     <row r="68" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>15</v>
@@ -2692,10 +2689,10 @@
     </row>
     <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>3</v>
@@ -2719,25 +2716,25 @@
     </row>
     <row r="70" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="2"/>
@@ -2749,13 +2746,13 @@
         <v>57</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
@@ -2772,16 +2769,16 @@
     </row>
     <row r="72" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
@@ -2799,16 +2796,16 @@
     </row>
     <row r="73" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>5</v>
@@ -2826,7 +2823,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>11</v>
@@ -2844,7 +2841,7 @@
         <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="2"/>
@@ -2853,7 +2850,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>11</v>
@@ -2880,7 +2877,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>22</v>
@@ -2889,7 +2886,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>5</v>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>56</v>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>11</v>
@@ -3039,16 +3036,16 @@
     </row>
     <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>5</v>
@@ -3066,16 +3063,16 @@
     </row>
     <row r="83" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>5</v>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>11</v>
@@ -3146,16 +3143,16 @@
     </row>
     <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>5</v>
@@ -3176,7 +3173,7 @@
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>3</v>
@@ -3199,13 +3196,13 @@
     </row>
     <row r="88" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>15</v>
@@ -3225,7 +3222,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>11</v>
@@ -3234,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>5</v>
@@ -3252,16 +3249,16 @@
     </row>
     <row r="90" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>5</v>
@@ -3278,10 +3275,10 @@
     </row>
     <row r="91" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>3</v>
@@ -3331,16 +3328,16 @@
     </row>
     <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>5</v>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="94" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>11</v>
@@ -3385,16 +3382,16 @@
     </row>
     <row r="95" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>5</v>
@@ -3411,7 +3408,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>11</v>
@@ -3444,7 +3441,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>18</v>
@@ -3461,22 +3458,22 @@
     </row>
     <row r="98" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>9</v>
@@ -3487,10 +3484,10 @@
     </row>
     <row r="99" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>3</v>
